--- a/Eye_Tracker_Raw_Data/LookTime/250ms/Tadpole_ET_summary_Story_FB1.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/Tadpole_ET_summary_Story_FB1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="0-All" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14749" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16114" uniqueCount="15">
   <si>
     <t>Fixation Duration_Slide1.JPG_AOI_1_Sum</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,6 +4793,279 @@
         <v>3.57</v>
       </c>
     </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N94" t="s">
+        <v>12</v>
+      </c>
+      <c r="O94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>127</v>
+      </c>
+      <c r="B95">
+        <v>2.85</v>
+      </c>
+      <c r="C95">
+        <v>1.8</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
+      </c>
+      <c r="E95">
+        <v>0.76</v>
+      </c>
+      <c r="F95">
+        <v>0.88</v>
+      </c>
+      <c r="G95">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95">
+        <v>0.17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95">
+        <v>0.21</v>
+      </c>
+      <c r="M95">
+        <v>1.96</v>
+      </c>
+      <c r="N95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>128</v>
+      </c>
+      <c r="B97">
+        <v>5.84</v>
+      </c>
+      <c r="C97">
+        <v>5.32</v>
+      </c>
+      <c r="D97">
+        <v>1.79</v>
+      </c>
+      <c r="E97">
+        <v>3.98</v>
+      </c>
+      <c r="F97">
+        <v>0.83</v>
+      </c>
+      <c r="G97">
+        <v>5.34</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="I97">
+        <v>2.82</v>
+      </c>
+      <c r="J97">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K97">
+        <v>1.05</v>
+      </c>
+      <c r="L97">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M97">
+        <v>2.65</v>
+      </c>
+      <c r="N97">
+        <v>3.53</v>
+      </c>
+      <c r="O97">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>129</v>
+      </c>
+      <c r="B99">
+        <v>6.19</v>
+      </c>
+      <c r="C99">
+        <v>5.57</v>
+      </c>
+      <c r="D99">
+        <v>5.28</v>
+      </c>
+      <c r="E99">
+        <v>1.79</v>
+      </c>
+      <c r="F99">
+        <v>7.4</v>
+      </c>
+      <c r="G99">
+        <v>2.1</v>
+      </c>
+      <c r="H99">
+        <v>5.08</v>
+      </c>
+      <c r="I99">
+        <v>6.18</v>
+      </c>
+      <c r="J99">
+        <v>7.69</v>
+      </c>
+      <c r="K99">
+        <v>0.79</v>
+      </c>
+      <c r="L99">
+        <v>6.92</v>
+      </c>
+      <c r="M99">
+        <v>2.71</v>
+      </c>
+      <c r="N99">
+        <v>6.85</v>
+      </c>
+      <c r="O99">
+        <v>2.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4800,10 +5073,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9176,6 +9449,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99">
+        <v>0.25</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.25</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101">
+        <v>0.05</v>
+      </c>
+      <c r="I101">
+        <v>0.2</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>0.25</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9183,10 +9729,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13559,6 +14105,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.01</v>
+      </c>
+      <c r="M99">
+        <v>0.24</v>
+      </c>
+      <c r="N99">
+        <v>0.05</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.25</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.2</v>
+      </c>
+      <c r="M101">
+        <v>0.05</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13566,10 +14385,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17942,6 +18761,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.03</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97">
+        <v>0.25</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.03</v>
+      </c>
+      <c r="E99">
+        <v>0.22</v>
+      </c>
+      <c r="F99">
+        <v>0.24</v>
+      </c>
+      <c r="G99">
+        <v>0.01</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0.25</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.11</v>
+      </c>
+      <c r="E101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17949,10 +19041,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22325,6 +23417,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.02</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97">
+        <v>0.15</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99">
+        <v>0.08</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0.25</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22332,10 +23697,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26708,6 +28073,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.01</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>0.01</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.2</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0.25</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26715,10 +28353,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31091,6 +32729,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0.05</v>
+      </c>
+      <c r="O99">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31098,10 +33009,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35474,6 +37385,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>0.06</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.05</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35481,10 +37665,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39857,6 +42041,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99">
+        <v>0.18</v>
+      </c>
+      <c r="G99">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39864,10 +42321,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44240,6 +46697,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99">
+        <v>0.25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44247,10 +46977,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48623,6 +51353,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99">
+        <v>0.08</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.04</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.08</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48630,10 +51633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53006,6 +56009,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N94" t="s">
+        <v>12</v>
+      </c>
+      <c r="O94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>14</v>
+      </c>
+      <c r="O95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>128</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0.01</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53013,10 +56289,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57389,6 +60665,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0.02</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>0.13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.04</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57396,10 +60945,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61772,6 +65321,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.23</v>
+      </c>
+      <c r="C97">
+        <v>0.13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97">
+        <v>0.25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97">
+        <v>0.09</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0.13</v>
+      </c>
+      <c r="O99">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61779,10 +65601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66155,6 +69977,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.21</v>
+      </c>
+      <c r="C99">
+        <v>0.17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
+        <v>0.09</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.24</v>
+      </c>
+      <c r="F101">
+        <v>0.17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.19</v>
+      </c>
+      <c r="J101">
+        <v>0.21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101">
+        <v>0.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66162,10 +70257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70538,6 +74633,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.2</v>
+      </c>
+      <c r="C97">
+        <v>0.16</v>
+      </c>
+      <c r="D97">
+        <v>0.04</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99">
+        <v>0.02</v>
+      </c>
+      <c r="I99">
+        <v>0.23</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
+      <c r="L99">
+        <v>0.06</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.08</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.25</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70545,10 +74913,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74921,6 +79289,279 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97">
+        <v>0.25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.02</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>0.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.15</v>
+      </c>
+      <c r="E101">
+        <v>0.1</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.04</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -74928,10 +79569,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79304,6 +83945,279 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.08</v>
+      </c>
+      <c r="C97">
+        <v>0.25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.06</v>
+      </c>
+      <c r="H97">
+        <v>0.25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.17</v>
+      </c>
+      <c r="E99">
+        <v>0.08</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+      <c r="J101">
+        <v>0.19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101">
+        <v>0.18</v>
+      </c>
+      <c r="M101">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79311,10 +84225,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83687,6 +88601,279 @@
         <v>0.22</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0.05</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <v>0.17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.04</v>
+      </c>
+      <c r="K99">
+        <v>0.21</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <v>0.19</v>
+      </c>
+      <c r="E101">
+        <v>0.06</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101">
+        <v>0.23</v>
+      </c>
+      <c r="I101">
+        <v>0.02</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>0.25</v>
+      </c>
+      <c r="N101">
+        <v>0.1</v>
+      </c>
+      <c r="O101">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -83694,10 +88881,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88070,6 +93257,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.16</v>
+      </c>
+      <c r="H97">
+        <v>0.17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.25</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101">
+        <v>0.25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>0.25</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -88077,10 +93537,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92453,6 +97913,279 @@
         <v>14</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>127</v>
+      </c>
+      <c r="B97">
+        <v>0.13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>0.25</v>
+      </c>
+      <c r="H97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>12</v>
+      </c>
+      <c r="O98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>0.25</v>
+      </c>
+      <c r="H99">
+        <v>0.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99">
+        <v>0.06</v>
+      </c>
+      <c r="M99">
+        <v>0.19</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>0.25</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>0.25</v>
+      </c>
+      <c r="F101">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101">
+        <v>0.25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>0.25</v>
+      </c>
+      <c r="N101">
+        <v>0.25</v>
+      </c>
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
